--- a/biology/Zoologie/Geitoneura/Geitoneura.xlsx
+++ b/biology/Zoologie/Geitoneura/Geitoneura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Geitoneura regroupe des papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae toutes résidant en Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Geitoneura leur a été donné par Arthur Gardiner Butler en 1867.
 </t>
@@ -542,15 +556,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (15 mai 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (15 mai 2010) :
 Geitoneura acantha (Donovan, 1805).
 Geitoneura acantha acantha
 Geitoneura acantha ocrea (Guest, 1882)
 Geitoneura klugii (Guérin-Méneville, 1831).
 Geitoneura klugii klugii
-Geitoneura klugii insula (Burns, [1948])
+Geitoneura klugii insula (Burns, )
 Geitoneura minyas (Waterhouse et Lyell, 1914).
 Geitoneura minyas minyas
 Geitoneura minyas mjobergi (Aurivillius, 1920)</t>
